--- a/Batch-10/Modules/Course Module/Course Schedule/TNGS LS Course Schedule.xlsx
+++ b/Batch-10/Modules/Course Module/Course Schedule/TNGS LS Course Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a-godwill.ngwanah\tngs\AWS-Sol-Arch-02\Batch-10\Modules\Course Module\Course Schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Godwill.Ngwanah\tngs\AWS-Sol-Arch-02\Batch-10\Modules\Course Module\Course Schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC31E12F-B87D-47F7-8E92-1A921B04CCAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6443483-BA72-4E8D-BC9F-0C085B077E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A076ADCC-7415-4768-96A6-DB0615FB62A0}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A076ADCC-7415-4768-96A6-DB0615FB62A0}"/>
   </bookViews>
   <sheets>
     <sheet name="TNGS LS Course Schedule" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="28">
   <si>
     <t>Dates</t>
   </si>
@@ -112,6 +112,12 @@
   </si>
   <si>
     <t>NO Class this week</t>
+  </si>
+  <si>
+    <t>Week 8</t>
+  </si>
+  <si>
+    <t>Holiday</t>
   </si>
 </sst>
 </file>
@@ -170,8 +176,7 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
-      <color rgb="FFFF0000"/>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -360,47 +365,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -408,6 +383,37 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -728,75 +734,77 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P17" sqref="P17"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.90625" customWidth="1"/>
-    <col min="7" max="7" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="11">
         <v>16</v>
       </c>
-      <c r="E2" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="14"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
-      <c r="B3" s="7" t="s">
+      <c r="E2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="19"/>
+      <c r="B3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -811,14 +819,14 @@
       <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="14"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
-      <c r="B4" s="7" t="s">
+      <c r="G3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="19"/>
+      <c r="B4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -833,14 +841,14 @@
       <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="14"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
-      <c r="B5" s="7" t="s">
+      <c r="G4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="19"/>
+      <c r="B5" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -855,26 +863,26 @@
       <c r="F5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="14"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="14"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+      <c r="G5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -889,14 +897,14 @@
       <c r="F7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="14"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="3"/>
-      <c r="B8" s="7" t="s">
+      <c r="G7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="19"/>
+      <c r="B8" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -911,14 +919,14 @@
       <c r="F8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="14"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
-      <c r="B9" s="7" t="s">
+      <c r="G8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="19"/>
+      <c r="B9" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -933,20 +941,20 @@
       <c r="F9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="14"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
-      <c r="B10" s="7" t="s">
+      <c r="G9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="19"/>
+      <c r="B10" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="4">
         <v>26</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -955,26 +963,26 @@
       <c r="F10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="14"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="14"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+      <c r="G10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -989,14 +997,14 @@
       <c r="F12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="14"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="3"/>
-      <c r="B13" s="7" t="s">
+      <c r="G12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="19"/>
+      <c r="B13" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1011,13 +1019,13 @@
       <c r="F13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="14"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="3"/>
+      <c r="G13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="19"/>
       <c r="B14" s="1" t="s">
         <v>23</v>
       </c>
@@ -1033,13 +1041,13 @@
       <c r="F14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="14"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="3"/>
+      <c r="G14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="19"/>
       <c r="B15" s="1" t="s">
         <v>23</v>
       </c>
@@ -1055,23 +1063,23 @@
       <c r="F15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="14"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="14"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
+      <c r="G15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="19" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1089,13 +1097,13 @@
       <c r="F17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="15"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="3"/>
+      <c r="G17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="19"/>
       <c r="B18" s="1" t="s">
         <v>23</v>
       </c>
@@ -1111,13 +1119,13 @@
       <c r="F18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="14"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="3"/>
+      <c r="G18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="19"/>
       <c r="B19" s="1" t="s">
         <v>23</v>
       </c>
@@ -1133,13 +1141,13 @@
       <c r="F19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="14"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="3"/>
+      <c r="G19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="19"/>
       <c r="B20" s="1" t="s">
         <v>23</v>
       </c>
@@ -1155,23 +1163,23 @@
       <c r="F20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="14"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="14"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
+      <c r="G20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="19" t="s">
         <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1189,15 +1197,15 @@
       <c r="F22" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G22" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22" s="16" t="s">
+      <c r="G22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="3"/>
+    <row r="23" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="19"/>
       <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
@@ -1213,13 +1221,13 @@
       <c r="F23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G23" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H23" s="17"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="3"/>
+      <c r="G23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="26"/>
+    </row>
+    <row r="24" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="19"/>
       <c r="B24" s="1" t="s">
         <v>23</v>
       </c>
@@ -1235,13 +1243,13 @@
       <c r="F24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="5" t="s">
         <v>20</v>
       </c>
       <c r="H24" s="17"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="3"/>
+    <row r="25" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="19"/>
       <c r="B25" s="1" t="s">
         <v>23</v>
       </c>
@@ -1257,23 +1265,23 @@
       <c r="F25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="5" t="s">
         <v>20</v>
       </c>
       <c r="H25" s="17"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="14"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="19" t="s">
         <v>18</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1291,13 +1299,13 @@
       <c r="F27" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G27" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H27" s="14"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="3"/>
+      <c r="G27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="19"/>
       <c r="B28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1313,13 +1321,13 @@
       <c r="F28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G28" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H28" s="14"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="3"/>
+      <c r="G28" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="19"/>
       <c r="B29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1335,13 +1343,13 @@
       <c r="F29" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G29" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H29" s="14"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="3"/>
+      <c r="G29" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="19"/>
       <c r="B30" s="1" t="s">
         <v>23</v>
       </c>
@@ -1357,23 +1365,23 @@
       <c r="F30" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G30" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H30" s="14"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="14"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
+      <c r="G30" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="24"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="19" t="s">
         <v>19</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1391,13 +1399,13 @@
       <c r="F32" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G32" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H32" s="14"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="3"/>
+      <c r="G32" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="19"/>
       <c r="B33" s="1" t="s">
         <v>23</v>
       </c>
@@ -1413,13 +1421,13 @@
       <c r="F33" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G33" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H33" s="14"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="3"/>
+      <c r="G33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="19"/>
       <c r="B34" s="1" t="s">
         <v>24</v>
       </c>
@@ -1435,13 +1443,13 @@
       <c r="F34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G34" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H34" s="14"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="3"/>
+      <c r="G34" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="19"/>
       <c r="B35" s="1" t="s">
         <v>24</v>
       </c>
@@ -1457,24 +1465,24 @@
       <c r="F35" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G35" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H35" s="14"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="14"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="s">
-        <v>17</v>
+      <c r="G35" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="22"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="19" t="s">
+        <v>26</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>24</v>
@@ -1491,13 +1499,13 @@
       <c r="F37" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G37" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H37" s="14"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="3"/>
+      <c r="G37" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="19"/>
       <c r="B38" s="1" t="s">
         <v>24</v>
       </c>
@@ -1513,13 +1521,13 @@
       <c r="F38" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G38" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H38" s="14"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="3"/>
+      <c r="G38" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H38" s="7"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="19"/>
       <c r="B39" s="1" t="s">
         <v>24</v>
       </c>
@@ -1535,13 +1543,13 @@
       <c r="F39" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G39" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H39" s="14"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="3"/>
+      <c r="G39" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H39" s="7"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="19"/>
       <c r="B40" s="1" t="s">
         <v>24</v>
       </c>
@@ -1557,34 +1565,34 @@
       <c r="F40" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G40" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H40" s="14"/>
-    </row>
-    <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="18"/>
+      <c r="G40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H40" s="7"/>
+    </row>
+    <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="24"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="H22:H23"/>
     <mergeCell ref="A36:G36"/>
     <mergeCell ref="A37:A40"/>
     <mergeCell ref="A41:G41"/>
     <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A31:G31"/>
     <mergeCell ref="A17:A20"/>
     <mergeCell ref="A21:G21"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="A26:G26"/>
-    <mergeCell ref="A31:G31"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="A12:A15"/>
